--- a/data/output/FV2304_FV2210/UTILMD/11169.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11169.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16346" uniqueCount="855">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16367" uniqueCount="855">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2754,6 +2754,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U745" totalsRowShown="0">
+  <autoFilter ref="A1:U745"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3043,7 +3073,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U745"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -37553,5 +37586,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11169.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11169.xlsx
@@ -5396,7 +5396,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -7678,7 +7678,7 @@
         <v>768</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -7940,7 +7940,7 @@
         <v>769</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -8200,7 +8200,7 @@
         <v>771</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -8764,7 +8764,7 @@
         <v>773</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -8962,7 +8962,7 @@
         <v>776</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -9220,7 +9220,7 @@
         <v>777</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -9422,7 +9422,7 @@
         <v>777</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -9872,7 +9872,7 @@
         <v>779</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -10160,7 +10160,7 @@
         <v>780</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -10518,7 +10518,7 @@
         <v>783</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -10762,7 +10762,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -11004,7 +11004,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -11142,7 +11142,7 @@
         <v>785</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -11294,7 +11294,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -12374,7 +12374,7 @@
         <v>773</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -12618,7 +12618,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -12810,7 +12810,7 @@
         <v>788</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -13016,7 +13016,7 @@
         <v>789</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -13154,7 +13154,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -13466,7 +13466,7 @@
         <v>790</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -13754,7 +13754,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -13958,7 +13958,7 @@
         <v>792</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -14342,7 +14342,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -14706,7 +14706,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -14842,7 +14842,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -15208,7 +15208,7 @@
         <v>795</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -15474,22 +15474,22 @@
       <c r="V206" s="5"/>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5" t="s">
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2" t="s">
         <v>697</v>
       </c>
       <c r="K207" s="6" t="s">
@@ -15498,19 +15498,19 @@
       <c r="L207" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="M207" s="5" t="s">
+      <c r="M207" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N207" s="5" t="s">
+      <c r="N207" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O207" s="5"/>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="5"/>
-      <c r="R207" s="5"/>
-      <c r="S207" s="5"/>
-      <c r="T207" s="5"/>
-      <c r="U207" s="5" t="s">
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2" t="s">
         <v>697</v>
       </c>
       <c r="V207" s="6" t="s">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -15990,7 +15990,7 @@
         <v>798</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -16386,7 +16386,7 @@
         <v>799</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -16636,7 +16636,7 @@
         <v>801</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -16958,7 +16958,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -17458,7 +17458,7 @@
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -17824,7 +17824,7 @@
         <v>802</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -17962,7 +17962,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -18112,7 +18112,7 @@
         <v>803</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -18250,7 +18250,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -18400,7 +18400,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -18550,7 +18550,7 @@
         <v>804</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -18930,7 +18930,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -19074,7 +19074,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -19318,7 +19318,7 @@
         <v>806</v>
       </c>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -19606,7 +19606,7 @@
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -19808,7 +19808,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -19944,7 +19944,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -20376,7 +20376,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -20512,7 +20512,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -20662,7 +20662,7 @@
         <v>808</v>
       </c>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -20800,7 +20800,7 @@
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -20952,7 +20952,7 @@
         <v>773</v>
       </c>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -21102,7 +21102,7 @@
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -21240,7 +21240,7 @@
         <v>773</v>
       </c>
       <c r="L325" s="4"/>
-      <c r="M325" s="2" t="s">
+      <c r="M325" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N325" s="2" t="s">
@@ -21502,7 +21502,7 @@
         <v>773</v>
       </c>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21652,7 +21652,7 @@
         <v>810</v>
       </c>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -21800,7 +21800,7 @@
         <v>773</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -22196,7 +22196,7 @@
         <v>777</v>
       </c>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -22484,7 +22484,7 @@
         <v>773</v>
       </c>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -22734,7 +22734,7 @@
         <v>812</v>
       </c>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -23034,7 +23034,7 @@
         <v>813</v>
       </c>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="4"/>
-      <c r="M364" s="2" t="s">
+      <c r="M364" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N364" s="2" t="s">
@@ -23324,7 +23324,7 @@
         <v>814</v>
       </c>
       <c r="L367" s="4"/>
-      <c r="M367" s="2" t="s">
+      <c r="M367" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N367" s="2" t="s">
@@ -23476,7 +23476,7 @@
       </c>
       <c r="K370" s="2"/>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -23680,7 +23680,7 @@
       </c>
       <c r="K374" s="2"/>
       <c r="L374" s="4"/>
-      <c r="M374" s="2" t="s">
+      <c r="M374" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N374" s="2" t="s">
@@ -23816,7 +23816,7 @@
       </c>
       <c r="K377" s="2"/>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -24020,7 +24020,7 @@
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -24224,7 +24224,7 @@
         <v>816</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24474,7 +24474,7 @@
         <v>817</v>
       </c>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -24612,7 +24612,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -24764,7 +24764,7 @@
         <v>818</v>
       </c>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -24910,7 +24910,7 @@
       </c>
       <c r="K399" s="2"/>
       <c r="L399" s="4"/>
-      <c r="M399" s="2" t="s">
+      <c r="M399" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N399" s="2" t="s">
@@ -26070,7 +26070,7 @@
         <v>777</v>
       </c>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -27248,7 +27248,7 @@
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="4"/>
-      <c r="M443" s="2" t="s">
+      <c r="M443" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N443" s="2" t="s">
@@ -27396,7 +27396,7 @@
         <v>820</v>
       </c>
       <c r="L446" s="4"/>
-      <c r="M446" s="2" t="s">
+      <c r="M446" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N446" s="2" t="s">
@@ -27604,7 +27604,7 @@
         <v>773</v>
       </c>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -27758,7 +27758,7 @@
         <v>773</v>
       </c>
       <c r="L453" s="4"/>
-      <c r="M453" s="2" t="s">
+      <c r="M453" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N453" s="2" t="s">
@@ -27966,7 +27966,7 @@
         <v>821</v>
       </c>
       <c r="L457" s="4"/>
-      <c r="M457" s="2" t="s">
+      <c r="M457" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N457" s="2" t="s">
@@ -28116,7 +28116,7 @@
       </c>
       <c r="K460" s="2"/>
       <c r="L460" s="4"/>
-      <c r="M460" s="2" t="s">
+      <c r="M460" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N460" s="2" t="s">
@@ -28564,7 +28564,7 @@
         <v>822</v>
       </c>
       <c r="L469" s="4"/>
-      <c r="M469" s="2" t="s">
+      <c r="M469" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N469" s="2" t="s">
@@ -28852,7 +28852,7 @@
         <v>823</v>
       </c>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -28990,7 +28990,7 @@
       </c>
       <c r="K478" s="2"/>
       <c r="L478" s="4"/>
-      <c r="M478" s="2" t="s">
+      <c r="M478" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N478" s="2" t="s">
@@ -29138,7 +29138,7 @@
       </c>
       <c r="K481" s="2"/>
       <c r="L481" s="4"/>
-      <c r="M481" s="2" t="s">
+      <c r="M481" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N481" s="2" t="s">
@@ -29274,7 +29274,7 @@
       </c>
       <c r="K484" s="2"/>
       <c r="L484" s="4"/>
-      <c r="M484" s="2" t="s">
+      <c r="M484" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N484" s="2" t="s">
@@ -29422,7 +29422,7 @@
         <v>821</v>
       </c>
       <c r="L487" s="4"/>
-      <c r="M487" s="2" t="s">
+      <c r="M487" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N487" s="2" t="s">
@@ -29574,7 +29574,7 @@
         <v>823</v>
       </c>
       <c r="L490" s="4"/>
-      <c r="M490" s="2" t="s">
+      <c r="M490" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N490" s="2" t="s">
@@ -29712,7 +29712,7 @@
       </c>
       <c r="K493" s="2"/>
       <c r="L493" s="4"/>
-      <c r="M493" s="2" t="s">
+      <c r="M493" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N493" s="2" t="s">
@@ -29856,7 +29856,7 @@
       </c>
       <c r="K496" s="2"/>
       <c r="L496" s="4"/>
-      <c r="M496" s="2" t="s">
+      <c r="M496" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N496" s="2" t="s">
@@ -29992,7 +29992,7 @@
       </c>
       <c r="K499" s="2"/>
       <c r="L499" s="4"/>
-      <c r="M499" s="2" t="s">
+      <c r="M499" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N499" s="2" t="s">
@@ -30138,7 +30138,7 @@
       </c>
       <c r="K502" s="2"/>
       <c r="L502" s="4"/>
-      <c r="M502" s="2" t="s">
+      <c r="M502" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N502" s="2" t="s">
@@ -30344,7 +30344,7 @@
         <v>824</v>
       </c>
       <c r="L506" s="4"/>
-      <c r="M506" s="2" t="s">
+      <c r="M506" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N506" s="2" t="s">
@@ -30550,7 +30550,7 @@
         <v>825</v>
       </c>
       <c r="L510" s="4"/>
-      <c r="M510" s="2" t="s">
+      <c r="M510" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N510" s="2" t="s">
@@ -30666,24 +30666,24 @@
       <c r="V512" s="5"/>
     </row>
     <row r="513" spans="1:22">
-      <c r="A513" s="5" t="s">
+      <c r="A513" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="B513" s="5" t="s">
+      <c r="B513" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C513" s="5" t="s">
+      <c r="C513" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D513" s="5" t="s">
+      <c r="D513" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E513" s="5"/>
-      <c r="F513" s="5"/>
-      <c r="G513" s="5"/>
-      <c r="H513" s="5"/>
-      <c r="I513" s="5"/>
-      <c r="J513" s="5" t="s">
+      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
+      <c r="G513" s="2"/>
+      <c r="H513" s="2"/>
+      <c r="I513" s="2"/>
+      <c r="J513" s="2" t="s">
         <v>741</v>
       </c>
       <c r="K513" s="6" t="s">
@@ -30692,21 +30692,21 @@
       <c r="L513" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="M513" s="5" t="s">
+      <c r="M513" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N513" s="5" t="s">
+      <c r="N513" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O513" s="5" t="s">
+      <c r="O513" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P513" s="5"/>
-      <c r="Q513" s="5"/>
-      <c r="R513" s="5"/>
-      <c r="S513" s="5"/>
-      <c r="T513" s="5"/>
-      <c r="U513" s="5" t="s">
+      <c r="P513" s="2"/>
+      <c r="Q513" s="2"/>
+      <c r="R513" s="2"/>
+      <c r="S513" s="2"/>
+      <c r="T513" s="2"/>
+      <c r="U513" s="2" t="s">
         <v>741</v>
       </c>
       <c r="V513" s="6" t="s">
@@ -30954,7 +30954,7 @@
         <v>817</v>
       </c>
       <c r="L518" s="4"/>
-      <c r="M518" s="2" t="s">
+      <c r="M518" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N518" s="2" t="s">
@@ -31108,7 +31108,7 @@
         <v>828</v>
       </c>
       <c r="L521" s="4"/>
-      <c r="M521" s="2" t="s">
+      <c r="M521" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N521" s="2" t="s">
@@ -31262,7 +31262,7 @@
         <v>829</v>
       </c>
       <c r="L524" s="4"/>
-      <c r="M524" s="2" t="s">
+      <c r="M524" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N524" s="2" t="s">
@@ -31410,7 +31410,7 @@
       </c>
       <c r="K527" s="2"/>
       <c r="L527" s="4"/>
-      <c r="M527" s="2" t="s">
+      <c r="M527" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N527" s="2" t="s">
@@ -31614,7 +31614,7 @@
         <v>831</v>
       </c>
       <c r="L531" s="4"/>
-      <c r="M531" s="2" t="s">
+      <c r="M531" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N531" s="2" t="s">
@@ -32010,7 +32010,7 @@
         <v>832</v>
       </c>
       <c r="L539" s="4"/>
-      <c r="M539" s="2" t="s">
+      <c r="M539" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N539" s="2" t="s">
@@ -32344,7 +32344,7 @@
         <v>833</v>
       </c>
       <c r="L546" s="4"/>
-      <c r="M546" s="2" t="s">
+      <c r="M546" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N546" s="2" t="s">
@@ -32532,7 +32532,7 @@
         <v>834</v>
       </c>
       <c r="L550" s="4"/>
-      <c r="M550" s="2" t="s">
+      <c r="M550" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N550" s="2" t="s">
@@ -32778,7 +32778,7 @@
         <v>835</v>
       </c>
       <c r="L555" s="4"/>
-      <c r="M555" s="2" t="s">
+      <c r="M555" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N555" s="2" t="s">
@@ -32916,7 +32916,7 @@
       </c>
       <c r="K558" s="2"/>
       <c r="L558" s="4"/>
-      <c r="M558" s="2" t="s">
+      <c r="M558" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N558" s="2" t="s">
@@ -33060,7 +33060,7 @@
       </c>
       <c r="K561" s="2"/>
       <c r="L561" s="4"/>
-      <c r="M561" s="2" t="s">
+      <c r="M561" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N561" s="2" t="s">
@@ -33198,7 +33198,7 @@
         <v>836</v>
       </c>
       <c r="L564" s="4"/>
-      <c r="M564" s="2" t="s">
+      <c r="M564" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N564" s="2" t="s">
@@ -33346,7 +33346,7 @@
       </c>
       <c r="K567" s="2"/>
       <c r="L567" s="4"/>
-      <c r="M567" s="2" t="s">
+      <c r="M567" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N567" s="2" t="s">
@@ -33658,7 +33658,7 @@
         <v>838</v>
       </c>
       <c r="L573" s="4"/>
-      <c r="M573" s="2" t="s">
+      <c r="M573" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N573" s="2" t="s">
@@ -33796,7 +33796,7 @@
       </c>
       <c r="K576" s="2"/>
       <c r="L576" s="4"/>
-      <c r="M576" s="2" t="s">
+      <c r="M576" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N576" s="2" t="s">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="K579" s="2"/>
       <c r="L579" s="4"/>
-      <c r="M579" s="2" t="s">
+      <c r="M579" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N579" s="2" t="s">
@@ -34076,7 +34076,7 @@
       </c>
       <c r="K582" s="2"/>
       <c r="L582" s="4"/>
-      <c r="M582" s="2" t="s">
+      <c r="M582" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N582" s="2" t="s">
@@ -34222,7 +34222,7 @@
       </c>
       <c r="K585" s="2"/>
       <c r="L585" s="4"/>
-      <c r="M585" s="2" t="s">
+      <c r="M585" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N585" s="2" t="s">
@@ -34588,7 +34588,7 @@
         <v>839</v>
       </c>
       <c r="L592" s="4"/>
-      <c r="M592" s="2" t="s">
+      <c r="M592" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N592" s="2" t="s">
@@ -34726,7 +34726,7 @@
       </c>
       <c r="K595" s="2"/>
       <c r="L595" s="4"/>
-      <c r="M595" s="2" t="s">
+      <c r="M595" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N595" s="2" t="s">
@@ -34870,7 +34870,7 @@
       </c>
       <c r="K598" s="2"/>
       <c r="L598" s="4"/>
-      <c r="M598" s="2" t="s">
+      <c r="M598" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N598" s="2" t="s">
@@ -35006,7 +35006,7 @@
       </c>
       <c r="K601" s="2"/>
       <c r="L601" s="4"/>
-      <c r="M601" s="2" t="s">
+      <c r="M601" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N601" s="2" t="s">
@@ -35152,7 +35152,7 @@
       </c>
       <c r="K604" s="2"/>
       <c r="L604" s="4"/>
-      <c r="M604" s="2" t="s">
+      <c r="M604" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N604" s="2" t="s">
@@ -35302,7 +35302,7 @@
         <v>839</v>
       </c>
       <c r="L607" s="4"/>
-      <c r="M607" s="2" t="s">
+      <c r="M607" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N607" s="2" t="s">
@@ -35574,7 +35574,7 @@
       </c>
       <c r="K613" s="2"/>
       <c r="L613" s="4"/>
-      <c r="M613" s="2" t="s">
+      <c r="M613" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N613" s="2" t="s">
@@ -35724,7 +35724,7 @@
         <v>841</v>
       </c>
       <c r="L616" s="4"/>
-      <c r="M616" s="2" t="s">
+      <c r="M616" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N616" s="2" t="s">
@@ -35862,7 +35862,7 @@
       </c>
       <c r="K619" s="2"/>
       <c r="L619" s="4"/>
-      <c r="M619" s="2" t="s">
+      <c r="M619" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N619" s="2" t="s">
@@ -36008,7 +36008,7 @@
       </c>
       <c r="K622" s="2"/>
       <c r="L622" s="4"/>
-      <c r="M622" s="2" t="s">
+      <c r="M622" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N622" s="2" t="s">
@@ -36156,7 +36156,7 @@
       </c>
       <c r="K625" s="2"/>
       <c r="L625" s="4"/>
-      <c r="M625" s="2" t="s">
+      <c r="M625" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N625" s="2" t="s">
@@ -36292,7 +36292,7 @@
       </c>
       <c r="K628" s="2"/>
       <c r="L628" s="4"/>
-      <c r="M628" s="2" t="s">
+      <c r="M628" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N628" s="2" t="s">
@@ -36442,7 +36442,7 @@
         <v>842</v>
       </c>
       <c r="L631" s="4"/>
-      <c r="M631" s="2" t="s">
+      <c r="M631" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N631" s="2" t="s">
@@ -36580,7 +36580,7 @@
       </c>
       <c r="K634" s="2"/>
       <c r="L634" s="4"/>
-      <c r="M634" s="2" t="s">
+      <c r="M634" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N634" s="2" t="s">
@@ -36728,7 +36728,7 @@
       </c>
       <c r="K637" s="2"/>
       <c r="L637" s="4"/>
-      <c r="M637" s="2" t="s">
+      <c r="M637" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N637" s="2" t="s">
@@ -37118,7 +37118,7 @@
         <v>843</v>
       </c>
       <c r="L645" s="4"/>
-      <c r="M645" s="2" t="s">
+      <c r="M645" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N645" s="2" t="s">
@@ -37256,7 +37256,7 @@
       </c>
       <c r="K648" s="2"/>
       <c r="L648" s="4"/>
-      <c r="M648" s="2" t="s">
+      <c r="M648" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N648" s="2" t="s">
@@ -37404,7 +37404,7 @@
       </c>
       <c r="K651" s="2"/>
       <c r="L651" s="4"/>
-      <c r="M651" s="2" t="s">
+      <c r="M651" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N651" s="2" t="s">
@@ -37792,7 +37792,7 @@
       </c>
       <c r="K659" s="2"/>
       <c r="L659" s="4"/>
-      <c r="M659" s="2" t="s">
+      <c r="M659" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N659" s="2" t="s">
@@ -38194,7 +38194,7 @@
         <v>845</v>
       </c>
       <c r="L667" s="4"/>
-      <c r="M667" s="2" t="s">
+      <c r="M667" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N667" s="2" t="s">
@@ -38332,7 +38332,7 @@
       </c>
       <c r="K670" s="2"/>
       <c r="L670" s="4"/>
-      <c r="M670" s="2" t="s">
+      <c r="M670" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N670" s="2" t="s">
@@ -38480,7 +38480,7 @@
       </c>
       <c r="K673" s="2"/>
       <c r="L673" s="4"/>
-      <c r="M673" s="2" t="s">
+      <c r="M673" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N673" s="2" t="s">
@@ -38708,7 +38708,7 @@
         <v>846</v>
       </c>
       <c r="L678" s="4"/>
-      <c r="M678" s="2" t="s">
+      <c r="M678" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N678" s="2" t="s">
@@ -39004,7 +39004,7 @@
       </c>
       <c r="K684" s="2"/>
       <c r="L684" s="4"/>
-      <c r="M684" s="2" t="s">
+      <c r="M684" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N684" s="2" t="s">
@@ -39154,7 +39154,7 @@
         <v>846</v>
       </c>
       <c r="L687" s="4"/>
-      <c r="M687" s="2" t="s">
+      <c r="M687" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N687" s="2" t="s">
@@ -39654,7 +39654,7 @@
       </c>
       <c r="K697" s="2"/>
       <c r="L697" s="4"/>
-      <c r="M697" s="2" t="s">
+      <c r="M697" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N697" s="2" t="s">
@@ -39804,7 +39804,7 @@
         <v>848</v>
       </c>
       <c r="L700" s="4"/>
-      <c r="M700" s="2" t="s">
+      <c r="M700" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N700" s="2" t="s">
@@ -40100,7 +40100,7 @@
       </c>
       <c r="K706" s="2"/>
       <c r="L706" s="4"/>
-      <c r="M706" s="2" t="s">
+      <c r="M706" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N706" s="2" t="s">
@@ -40250,7 +40250,7 @@
         <v>848</v>
       </c>
       <c r="L709" s="4"/>
-      <c r="M709" s="2" t="s">
+      <c r="M709" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N709" s="2" t="s">
@@ -40750,7 +40750,7 @@
         <v>849</v>
       </c>
       <c r="L719" s="4"/>
-      <c r="M719" s="2" t="s">
+      <c r="M719" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N719" s="2" t="s">
@@ -41142,7 +41142,7 @@
       </c>
       <c r="K727" s="2"/>
       <c r="L727" s="4"/>
-      <c r="M727" s="2" t="s">
+      <c r="M727" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N727" s="2" t="s">
@@ -41292,7 +41292,7 @@
         <v>851</v>
       </c>
       <c r="L730" s="4"/>
-      <c r="M730" s="2" t="s">
+      <c r="M730" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N730" s="2" t="s">
@@ -41792,7 +41792,7 @@
       </c>
       <c r="K740" s="2"/>
       <c r="L740" s="4"/>
-      <c r="M740" s="2" t="s">
+      <c r="M740" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N740" s="2" t="s">
@@ -41940,7 +41940,7 @@
       </c>
       <c r="K743" s="2"/>
       <c r="L743" s="4"/>
-      <c r="M743" s="2" t="s">
+      <c r="M743" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N743" s="2"/>
